--- a/Plugins/Inconsistent transferFrom().xlsx
+++ b/Plugins/Inconsistent transferFrom().xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - std.uestc.edu.cn\科研\s&amp;p\跑出来的结果\上传到GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2A3F66B7DB165AB16C11DBF8B47D385347908903" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{68DBF343-3686-4393-B1AE-12A58A282962}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AEA386-DC5C-472A-AAAB-3D6AECB6B0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0-900w" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0-900w'!$A$1:$A$458</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1520,17 +1520,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1538,6 +1541,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1545,6 +1549,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1925,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5823,6 +5828,16 @@
       </c>
       <c r="C469" s="13"/>
       <c r="D469" s="13"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C470" s="7">
+        <f>SUM(C2:C469)</f>
+        <v>468</v>
+      </c>
+      <c r="D470" s="7">
+        <f>SUM(D2:D469)</f>
+        <v>4.7427329259197298E+70</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A458" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -5882,21 +5897,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100D5FEFA09FE377344B2A8F866627F41DE" ma:contentTypeVersion="13" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="5e83187d23fe1cfcd10497db1cfedc15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04e2ea43-3e46-4274-bacf-fedd224a4afa" xmlns:ns4="27b8fdbd-3403-4f64-89b9-e241d33f785c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bba7c5289d441227ae203276695950c4" ns3:_="" ns4:_="">
     <xsd:import namespace="04e2ea43-3e46-4274-bacf-fedd224a4afa"/>
@@ -6119,13 +6125,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496404A9-53ED-4142-B093-2A90F182D4FE}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2C6233-1C23-4A71-A466-1673C384D263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6142,8 +6151,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA013D5-A6A1-4199-B1B5-1C2EE932C4F1}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496404A9-53ED-4142-B093-2A90F182D4FE}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>